--- a/biology/Écologie/Observatoire_naturaliste_des_écosystèmes_méditerranéens/Observatoire_naturaliste_des_écosystèmes_méditerranéens.xlsx
+++ b/biology/Écologie/Observatoire_naturaliste_des_écosystèmes_méditerranéens/Observatoire_naturaliste_des_écosystèmes_méditerranéens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Observatoire_naturaliste_des_%C3%A9cosyst%C3%A8mes_m%C3%A9diterran%C3%A9ens</t>
+          <t>Observatoire_naturaliste_des_écosystèmes_méditerranéens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Observatoire naturaliste des écosystèmes méditerranéens (ONEM) est un réseau de personnes physiques fondé en décembre 2004. L'observatoire, officialisé par un statut associatif loi de 1901, fonctionne selon une démarche coopérative. Il couvre tout le territoire méditerranéen français, qui concerne vingt départements. Il semble néanmoins inactif depuis 2012.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Observatoire_naturaliste_des_%C3%A9cosyst%C3%A8mes_m%C3%A9diterran%C3%A9ens</t>
+          <t>Observatoire_naturaliste_des_écosystèmes_méditerranéens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association est née d'un constat de lacunes dans certaines domaines de la connaissance naturaliste et de difficultés dans l'échange des connaissances sur la nature et sur les écosystèmes dans l'espace méditerranéen français. 
 L'activité de l'ONEM s'articule autour de plusieurs thématiques :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Observatoire_naturaliste_des_%C3%A9cosyst%C3%A8mes_m%C3%A9diterran%C3%A9ens</t>
+          <t>Observatoire_naturaliste_des_écosystèmes_méditerranéens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Sciences citoyennes et participatives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ONEM est porteur d'un projet de sciences citoyennes et participatives. Plus qu'une simple association, l'ONEM est un outil d'échanges et de travail permettant une meilleure prise en compte de la biodiversité dans les instances de décision d'aménagement du territoire dans le midi méditerranéen. Le réseau peut donc jouer un rôle citoyen (au sens d'acteur de l'avenir de la société) en proposant la participation du plus grand nombre à ses programmes.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Observatoire_naturaliste_des_%C3%A9cosyst%C3%A8mes_m%C3%A9diterran%C3%A9ens</t>
+          <t>Observatoire_naturaliste_des_écosystèmes_méditerranéens</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Liens avec les institutions publiques régionales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les liens entre l'ONEM et les instances régionales (administrations et collectivités territoriales) sont actuellement très limités. D'une part, les membres du réseau souhaitent conserver une certaine indépendance vis-à-vis des sphères officielles régionales et d'autre part, les institutions publiques méconnaissent complètement les travaux de l'ONEM, du fait de son statut de « réseau de personnes physiques » et du manque de visibilité du réseau en termes de masse budgétaire – les travaux de l'ONEM sont tous produits gratuitement. Malgré tout, l'ONEM a pu contribuer à différents programmes régionaux officiels tels que les opérations régionales de modernisation des ZNIEFF, ou la définition des schémas régionaux de la biodiversité.
 À l'heure actuelle[Quand ?], l'ONEM participe activement à la structuration et à l'émergence de portails naturalistes dynamiques régionaux (pilotés par la LPO en région PACA et par le CEN-LR en région Languedoc-Roussillon).[réf. nécessaire]
